--- a/excel/StoreConfig.xlsx
+++ b/excel/StoreConfig.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="RoleInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="ProductList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>string</t>
   </si>
@@ -27,139 +27,7 @@
     <t>ID:1~999999</t>
   </si>
   <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>模型配置路径</t>
-  </si>
-  <si>
     <t>图标名</t>
-  </si>
-  <si>
-    <t>初始血量</t>
-  </si>
-  <si>
-    <t>转身速度</t>
-  </si>
-  <si>
-    <t>行走速度</t>
-  </si>
-  <si>
-    <t>跑步速度</t>
-  </si>
-  <si>
-    <t>Fighter</t>
-  </si>
-  <si>
-    <t>46_11100033</t>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ame</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>odel</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>con</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>alkSpeed</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>unSpeed</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -182,59 +50,244 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>common.099</t>
+  </si>
+  <si>
+    <t>common.199</t>
+  </si>
+  <si>
+    <t>common.299</t>
+  </si>
+  <si>
+    <t>common.399</t>
+  </si>
+  <si>
+    <t>common.499</t>
+  </si>
+  <si>
+    <t>common.599</t>
+  </si>
+  <si>
+    <t>common.699</t>
+  </si>
+  <si>
+    <t>common.799</t>
+  </si>
+  <si>
+    <t>common.899</t>
+  </si>
+  <si>
+    <t>common.999</t>
+  </si>
+  <si>
+    <t>common.1099</t>
+  </si>
+  <si>
+    <t>common.1199</t>
+  </si>
+  <si>
+    <t>common.1299</t>
+  </si>
+  <si>
+    <t>common.1399</t>
+  </si>
+  <si>
+    <t>common.1499</t>
+  </si>
+  <si>
+    <t>common.1599</t>
+  </si>
+  <si>
+    <t>common.1699</t>
+  </si>
+  <si>
+    <t>common.1799</t>
+  </si>
+  <si>
+    <t>common.1899</t>
+  </si>
+  <si>
+    <t>common.1999</t>
+  </si>
+  <si>
+    <t>common.2099</t>
+  </si>
+  <si>
+    <t>common.2199</t>
+  </si>
+  <si>
+    <t>common.2299</t>
+  </si>
+  <si>
+    <t>common.2399</t>
+  </si>
+  <si>
+    <t>common.2499</t>
+  </si>
+  <si>
+    <t>common.2599</t>
+  </si>
+  <si>
+    <t>common.2699</t>
+  </si>
+  <si>
+    <t>common.2799</t>
+  </si>
+  <si>
+    <t>common.2899</t>
+  </si>
+  <si>
+    <t>common.2999</t>
+  </si>
+  <si>
+    <t>common.3099</t>
+  </si>
+  <si>
+    <t>common.3199</t>
+  </si>
+  <si>
+    <t>common.3299</t>
+  </si>
+  <si>
+    <t>common.3399</t>
+  </si>
+  <si>
+    <t>common.3499</t>
+  </si>
+  <si>
+    <t>common.3599</t>
+  </si>
+  <si>
+    <t>common.3699</t>
+  </si>
+  <si>
+    <t>common.3799</t>
+  </si>
+  <si>
+    <t>common.3899</t>
+  </si>
+  <si>
+    <t>common.3999</t>
+  </si>
+  <si>
+    <t>common.4099</t>
+  </si>
+  <si>
+    <t>common.4199</t>
+  </si>
+  <si>
+    <t>common.4299</t>
+  </si>
+  <si>
+    <t>common.4399</t>
+  </si>
+  <si>
+    <t>common.4499</t>
+  </si>
+  <si>
+    <t>common.4599</t>
+  </si>
+  <si>
+    <t>common.4699</t>
+  </si>
+  <si>
+    <t>common.4799</t>
+  </si>
+  <si>
+    <t>common.4899</t>
+  </si>
+  <si>
+    <t>common.4999</t>
+  </si>
+  <si>
+    <t>common.5099</t>
+  </si>
+  <si>
+    <t>common.5199</t>
+  </si>
+  <si>
+    <t>common.5299</t>
+  </si>
+  <si>
+    <t>common.5399</t>
+  </si>
+  <si>
+    <t>common.5499</t>
+  </si>
+  <si>
+    <t>common.5599</t>
+  </si>
+  <si>
+    <t>common.5699</t>
+  </si>
+  <si>
+    <t>common.5799</t>
+  </si>
+  <si>
+    <t>common.5899</t>
+  </si>
+  <si>
+    <t>common.5999</t>
+  </si>
+  <si>
+    <t>common.6099</t>
+  </si>
+  <si>
+    <t>common.6199</t>
+  </si>
+  <si>
+    <t>common.6299</t>
+  </si>
+  <si>
+    <t>common.6399</t>
+  </si>
+  <si>
+    <t>common.6499</t>
+  </si>
+  <si>
+    <t>common.6599</t>
+  </si>
+  <si>
+    <t>common.6699</t>
+  </si>
+  <si>
+    <t>common.6799</t>
+  </si>
+  <si>
+    <t>common.6899</t>
+  </si>
+  <si>
+    <t>common.6999</t>
+  </si>
+  <si>
+    <t>common.7099</t>
+  </si>
+  <si>
+    <t>内购购买key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pricel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内购支持价位表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>float</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第A点</t>
+    <t>购买金额(美刀)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>awa</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>iuniu</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fighter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fighter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46_11100033</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46_11100033</t>
+    <t>int,string,float</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +322,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF393939"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -284,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -307,13 +375,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA7A7A7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA7A7A7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA7A7A7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA7A7A7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,6 +416,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,14 +728,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="2" customWidth="1"/>
@@ -658,187 +747,912 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
+      <c r="C1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
+      <c r="C3" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A6" s="7">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1.99</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.99</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3.99</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4.99</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5.99</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6.99</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8.99</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10.99</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>11.99</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12.99</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13.99</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7">
+        <v>14.99</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>15.99</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C22" s="7">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A25" s="7">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7">
+        <v>20.99</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7">
+        <v>21.99</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7">
+        <v>22.99</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A29" s="7">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7">
+        <v>23.99</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7">
+        <v>24.99</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7">
+        <v>25.99</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A32" s="7">
         <v>26</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7">
+        <v>26.99</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="7">
+        <v>27.99</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A34" s="7">
         <v>28</v>
       </c>
-      <c r="E8" s="2">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>200</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="7">
+        <v>28.99</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A35" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>300</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="B35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="7">
+        <v>30.99</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="7">
+        <v>31.99</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="7">
+        <v>32.99</v>
+      </c>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="7">
+        <v>33.99</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="7">
+        <v>34.99</v>
+      </c>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="7">
+        <v>35.99</v>
+      </c>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="7">
+        <v>36.99</v>
+      </c>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="7">
+        <v>37.99</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="7">
+        <v>38.99</v>
+      </c>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="7">
+        <v>40.99</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="7">
+        <v>41.99</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="7">
+        <v>42.99</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="7">
+        <v>43.99</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>44.99</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="7">
+        <v>45.99</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="7">
+        <v>46.99</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="7">
+        <v>47.99</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="7">
+        <v>48.99</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="2">
-        <v>0.8</v>
-      </c>
+      <c r="C56" s="7">
+        <v>50.99</v>
+      </c>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="7">
+        <v>51.99</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="7">
+        <v>52.99</v>
+      </c>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="7">
+        <v>53.99</v>
+      </c>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="7">
+        <v>54.99</v>
+      </c>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="7">
+        <v>55.99</v>
+      </c>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="7">
+        <v>56.99</v>
+      </c>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="7">
+        <v>57.99</v>
+      </c>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="7">
+        <v>58.99</v>
+      </c>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="7">
+        <v>59.99</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="7">
+        <v>60.99</v>
+      </c>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="7">
+        <v>61.99</v>
+      </c>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="7">
+        <v>62.99</v>
+      </c>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="7">
+        <v>63.99</v>
+      </c>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="7">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="7">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="7">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="7">
+        <v>67.989999999999995</v>
+      </c>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="7">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="7">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="7">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="D76" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
